--- a/jacobi/src/test/resources/jacobi/test/data/MulTTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/MulTTest.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="22995" windowHeight="7740" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="22995" windowHeight="7740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="(3x7)x(7x4)^t" sheetId="1" r:id="rId1"/>
-    <sheet name="(6x2)x(2x5)^t" sheetId="2" r:id="rId2"/>
+    <sheet name="(6x2)x(5x2)^t" sheetId="2" r:id="rId2"/>
     <sheet name="(10x4)x(4x13)^t" sheetId="4" r:id="rId3"/>
     <sheet name="rand" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -367,7 +366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -724,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,7 +854,7 @@
         <v>2.8193207477416333</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4.6972705708998781</v>
       </c>
@@ -863,7 +862,7 @@
         <v>6.2067364774622895</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-0.49650449511631756</v>
       </c>
@@ -871,7 +870,7 @@
         <v>6.9041192824661444</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11.503455455681951</v>
       </c>
@@ -879,66 +878,120 @@
         <v>2.3904591073969002</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="array" ref="A23:B28">MMULT(A3:B8,TRANSPOSE(A15:B19))</f>
+        <f t="array" ref="A23:E28">MMULT(A3:B8,TRANSPOSE(A15:B19))</f>
         <v>-14.400078603289764</v>
       </c>
       <c r="B23">
         <v>-19.164665641399544</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>106.92672795794628</v>
+      </c>
+      <c r="D23">
+        <v>74.608183628040223</v>
+      </c>
+      <c r="E23">
+        <v>116.2971139314522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-49.724999892616225</v>
       </c>
       <c r="B24">
         <v>-66.492401932459643</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>31.285480009139981</v>
+      </c>
+      <c r="D24">
+        <v>-18.02019532789199</v>
+      </c>
+      <c r="E24">
+        <v>101.54663923386282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8.0506117183698009</v>
       </c>
       <c r="B25">
         <v>10.724362484279444</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>-49.014915990956681</v>
+      </c>
+      <c r="D25">
+        <v>-32.930878981865646</v>
+      </c>
+      <c r="E25">
+        <v>-55.460930598704905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-29.042190147757587</v>
       </c>
       <c r="B26">
         <v>-38.740159771346526</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>120.40806874113983</v>
+      </c>
+      <c r="D26">
+        <v>72.783983707775931</v>
+      </c>
+      <c r="E26">
+        <v>149.98886769167495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-41.634997666717986</v>
       </c>
       <c r="B27">
         <v>-55.613957198781961</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>91.118326574882545</v>
+      </c>
+      <c r="D27">
+        <v>37.867110178309005</v>
+      </c>
+      <c r="E27">
+        <v>142.66652664003922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>39.440966289624164</v>
       </c>
       <c r="B28">
         <v>52.811323349062725</v>
+      </c>
+      <c r="C28">
+        <v>51.150987511778595</v>
+      </c>
+      <c r="D28">
+        <v>76.256417373886805</v>
+      </c>
+      <c r="E28">
+        <v>-13.099339193026982</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="I49" sqref="I49:I50"/>
     </sheetView>
   </sheetViews>
@@ -1911,1401 +1964,1401 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*20-7</f>
-        <v>-3.1763542725264498</v>
+        <v>-5.6797529510592186</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:Q16" ca="1" si="0">RAND()*20-7</f>
-        <v>0.72118244299458301</v>
+        <v>-4.14092696169158</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15871753676072409</v>
+        <v>1.934244126902831</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0737097236108832</v>
+        <v>-6.7243593013777936</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5347816182730156</v>
+        <v>2.8763807275644169</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.2837438614088565</v>
+        <v>-2.3908509275935774</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5794530928297199</v>
+        <v>4.9424223385580603</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.8695412188057334</v>
+        <v>-3.3629817738998384</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0815294081489171</v>
+        <v>-4.1331371376185952</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.6491957475545469</v>
+        <v>1.6608111699187873</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6655816718632899</v>
+        <v>5.979705647367739</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>9.398808972369288E-2</v>
+        <v>1.1485166126022417</v>
       </c>
       <c r="M1">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0708870921957887</v>
+        <v>12.853203057934707</v>
       </c>
       <c r="N1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2361275139237478</v>
+        <v>12.487199230124546</v>
       </c>
       <c r="O1">
         <f t="shared" ca="1" si="0"/>
-        <v>10.635912242190173</v>
+        <v>-4.9044962160594583</v>
       </c>
       <c r="P1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.507176028459206</v>
+        <v>-0.49711706119960652</v>
       </c>
       <c r="Q1">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1443815700678766</v>
+        <v>5.9390503977092877</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:P20" ca="1" si="1">RAND()*20-7</f>
-        <v>-4.4732134186400927</v>
+        <v>3.2075218644149892</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.86984941699354934</v>
+        <v>8.4243949299331451</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7919458035799263</v>
+        <v>9.2363914695076303</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.532623964643717</v>
+        <v>11.1093847871701</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5344391088132401</v>
+        <v>7.2432419312922303</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0588619388559808</v>
+        <v>-6.7313051028325459</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9578314588060284</v>
+        <v>6.5343724080320111</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4039920591673583</v>
+        <v>-1.4492085325632065</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5088188788796746</v>
+        <v>6.4009855489374434</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98973359246826043</v>
+        <v>6.9469758701182514</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8519374206604873</v>
+        <v>4.9679385502100306</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7725668722985457</v>
+        <v>4.2110754902687653</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.7831317661082693</v>
+        <v>-5.3401587184744024</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.437351322895009</v>
+        <v>9.2262533291496993</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6688181102658586</v>
+        <v>-4.8960518928423422</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.3978623702632973</v>
+        <v>3.0741338580978805</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7567584401370624</v>
+        <v>-3.9275939997810632</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.8733077210554505</v>
+        <v>-3.5345081586329856</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0457105753205429</v>
+        <v>-5.9193183042098667</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1098444541234436</v>
+        <v>12.807211047701532</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.6615687048682801</v>
+        <v>0.77437589491663594</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0966920791926054</v>
+        <v>10.22870230567354</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5995022006552677</v>
+        <v>3.1219694679570242</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9716163328075851</v>
+        <v>-5.5462108845930356</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>12.95259778885632</v>
+        <v>11.685971262278862</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86377936889358686</v>
+        <v>-6.9306647194435316</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6595820663514456</v>
+        <v>5.7058695235484027</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>10.722267413366136</v>
+        <v>11.89135235023593</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>11.273763080997604</v>
+        <v>7.1588846347609465</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5080930848699943</v>
+        <v>-0.41204700138659778</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4395076363807693</v>
+        <v>10.488501906955666</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3838620892707851</v>
+        <v>-1.0374399917646748</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1858147746340357</v>
+        <v>6.4420121278010996</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.156845543424657</v>
+        <v>3.4407505941058716</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1699900909556238</v>
+        <v>11.558225662731321</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.536210405571742</v>
+        <v>9.9952479616575545</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>10.184255402182245</v>
+        <v>4.5216205362040078</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8210810396830617</v>
+        <v>7.9372624843623889</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.5098468996734216</v>
+        <v>2.2378821879114614</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6831800672340602</v>
+        <v>-2.5698980036169088</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6512108808962536</v>
+        <v>-5.5782211934951942</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0460055843154441</v>
+        <v>11.96701290148356</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8903940533875865</v>
+        <v>0.19288641903769665</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3509077105842167</v>
+        <v>-4.7160584432267871</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.497754135416784</v>
+        <v>10.464680090795291</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4968624393974519</v>
+        <v>6.5401495279924493</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58503969916174903</v>
+        <v>5.2007268640885602</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8922271004601878</v>
+        <v>5.2048521506867917</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8683592940808911</v>
+        <v>-1.3031151904609715</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3883834938513573</v>
+        <v>0.18546828221797718</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>11.346077280535582</v>
+        <v>3.3957796902954129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9105477417253116</v>
+        <v>0.91850193882126696</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.9405581931778437</v>
+        <v>1.6942424280210346</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.5043089057291574</v>
+        <v>4.4920001933695204</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1717297086186029</v>
+        <v>11.102544046383649</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91327274074036424</v>
+        <v>-3.1455698324961339</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.2896198022156042E-2</v>
+        <v>8.3811444818380298</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.295080498015125</v>
+        <v>7.8649964136200037</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.240439269413717</v>
+        <v>6.9155230568008328</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.390705698372638</v>
+        <v>2.0530346030550053</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5202530787676558</v>
+        <v>1.9056791571906402</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.089831598891001</v>
+        <v>7.158056116036736</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>11.812538948526317</v>
+        <v>6.5585277832425248</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9613654958747588</v>
+        <v>12.165812746763496</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9797137723141418</v>
+        <v>12.940632775071624</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6688035518066631</v>
+        <v>-0.31991144705397367</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9587235506456615</v>
+        <v>0.30167454973888752</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>12.621728873021279</v>
+        <v>-6.7153832888839053</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.19543448881925052</v>
+        <v>-5.6662158796342537</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8373509192422066</v>
+        <v>6.9972766474190244</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>12.365981502248186</v>
+        <v>-0.45514208456216387</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.3814815794070849</v>
+        <v>-0.40453710104612384</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2334054145645057</v>
+        <v>3.0864957998799092</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.9434494181206912</v>
+        <v>-1.7287007242416834</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3027529698242422</v>
+        <v>6.8398880243963127</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.8021321279509328</v>
+        <v>3.0055260311256085</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10993674950987398</v>
+        <v>-3.7718008114077022</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1927511171691076</v>
+        <v>-4.1305038240222913E-2</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7558849308082998</v>
+        <v>5.5581391038212171</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.2194784413659709</v>
+        <v>-3.5618165817141261</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.9071441675977576</v>
+        <v>9.4605590828137167</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0508058225201888</v>
+        <v>0.56737951315276547</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.13498118246285706</v>
+        <v>2.9417416285758016</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2554603874384966</v>
+        <v>8.620026585664359</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.650278182315656</v>
+        <v>-6.1270325163405719</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0811260532668499</v>
+        <v>7.8456692918709248</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.6215893919262889</v>
+        <v>5.7919643290087581</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.8776218009146426</v>
+        <v>-0.54943760967179056</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1987122182232239</v>
+        <v>4.5458489565555844</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5702029453339463E-2</v>
+        <v>2.5917460815861659</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.1733903401419354</v>
+        <v>12.339943534807865</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5965079600604879</v>
+        <v>11.683881158146715</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.28355912611595535</v>
+        <v>7.9557875237861087</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4271272820627932</v>
+        <v>6.7636865067983649</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7715653823792223</v>
+        <v>-2.0483059043189975</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6565864153648846</v>
+        <v>5.6543785471831995</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.4121603153871942</v>
+        <v>12.826625584744058</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6832445315284152</v>
+        <v>-5.6391064609856709</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6746961461383005</v>
+        <v>8.7324429762556033</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9605817248122044</v>
+        <v>-4.9181080081414095</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.8005524409085858</v>
+        <v>-0.91480696127216365</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62926784383566137</v>
+        <v>2.9848443268924925</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>2.7832132225945667</v>
+        <v>4.0831555607936423</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7257783640566338</v>
+        <v>10.841158751052316</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2068927484591185</v>
+        <v>11.546876944004172</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5115098849475999E-2</v>
+        <v>2.5450929482726963</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7805896142537758</v>
+        <v>-6.6111446706574011</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.734030841626204</v>
+        <v>8.5208396216189488</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6214442709069754</v>
+        <v>-2.2066133026286803</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7703909471804771</v>
+        <v>7.8520673760128972</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13842473083978746</v>
+        <v>-4.9158616199269449</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>10.694273168442216</v>
+        <v>2.8883118496374234</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>8.2091203061118065</v>
+        <v>-2.1260004450524139</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.450966895264397</v>
+        <v>2.3443374595040787</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5350609868225078</v>
+        <v>8.5203378776232004</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5387834144210482</v>
+        <v>-4.2134030402975391</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>10.976345501634885</v>
+        <v>-6.1051494507946895</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9150831106790527</v>
+        <v>-3.3676078544992309</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8185279372388816</v>
+        <v>6.5065720377314769</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2035831285948744</v>
+        <v>2.1287972451998805</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.26645380816289865</v>
+        <v>-5.6657277066945131</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>12.761849893986771</v>
+        <v>10.337953188676753</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.0231956914624774</v>
+        <v>5.3999993844879075</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6960105997579884</v>
+        <v>8.579292408086804</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.9016211871776179</v>
+        <v>-2.5491335239420909</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3901430369488388</v>
+        <v>-5.0211352226902344</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>11.33648645971606</v>
+        <v>5.1614838847162829</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6624735241131461</v>
+        <v>-3.2456709224672391</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1957719074527304</v>
+        <v>1.1408259372757197</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8593643338962451</v>
+        <v>5.9317067468503044</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9547027709973168</v>
+        <v>6.5732330204454641</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9268452088327912</v>
+        <v>9.1292896143434277</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2979475276490238</v>
+        <v>-3.2526683058733901</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2423335609858093</v>
+        <v>-5.8892145774890308</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>12.093628904087282</v>
+        <v>-4.8320719559799183</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2513922118330836</v>
+        <v>-4.4818485404650907</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2951273734976443</v>
+        <v>10.581477057665857</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2052981828940386</v>
+        <v>0.35223548409651428</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6311657997470519</v>
+        <v>-1.4663803194633722</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>10.46812252528634</v>
+        <v>11.596957399022852</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3014540126889784</v>
+        <v>0.91026850769521062</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1392986199849577</v>
+        <v>3.562059735103734</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0948577187107071</v>
+        <v>1.8486164794609863</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95917868347070545</v>
+        <v>-3.3797699899394411</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.10569970889759617</v>
+        <v>9.3244457916199153</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3684877777068714</v>
+        <v>-3.9027542978314349</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.23964074263122193</v>
+        <v>-1.751558976233814</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>12.848698799746106</v>
+        <v>-4.7102614685788069</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.7115237259038962</v>
+        <v>7.8887988448407871</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8319145624413657</v>
+        <v>11.53238788483365</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.658171804462202</v>
+        <v>4.4506023901091929</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85577332271128359</v>
+        <v>-5.0979388819556402</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.2862272231500302</v>
+        <v>10.722836540715392</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>6.2199943877346868</v>
+        <v>8.547430884838489</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0391313001803528</v>
+        <v>8.095448554193398</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>11.209203140400717</v>
+        <v>-0.68517328979795611</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.0537596802417477</v>
+        <v>2.9928994483795144</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2408306147402524</v>
+        <v>3.2645567291252249</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.0191928980263398</v>
+        <v>-6.9478805084941175</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8409669048796591</v>
+        <v>7.3855490795603984</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4448400402986916</v>
+        <v>-4.7378323597150871</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.1409453372226341</v>
+        <v>-0.46122761291721481</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6494598435760022</v>
+        <v>-5.0025794720328447</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0691105195680848E-2</v>
+        <v>8.7519072548385672</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.519035921183459</v>
+        <v>12.96676752909292</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.0840167435207251</v>
+        <v>-8.3693881688668981E-2</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>10.153300887293476</v>
+        <v>12.754101892434083</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.1696543956492693</v>
+        <v>7.9971023194871513</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.931279845151149</v>
+        <v>1.603258583668989</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.3859438815077638</v>
+        <v>9.1107052849520009</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>2.44083099715359</v>
+        <v>5.2767957220156116</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.451977481473698</v>
+        <v>8.8302150233270655</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7209751985327628</v>
+        <v>11.692998468398752</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.515091517190811</v>
+        <v>12.89668689978944</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9243188382995999</v>
+        <v>5.8527752153975534</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2370141356305009</v>
+        <v>1.1999788820469011</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>10.61397489851117</v>
+        <v>8.1022056036715249</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6726406577521491</v>
+        <v>-6.0767472832308389</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1048442902443325</v>
+        <v>10.866509186211466</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.4199287525953794</v>
+        <v>-1.2745091129777872</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.854192100948755</v>
+        <v>-5.1073941006908452</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5170776051774979</v>
+        <v>-5.9913054928578751</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.6367830129443117</v>
+        <v>9.3397411797305878</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>12.660384719276408</v>
+        <v>-5.5885445545436738</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.6790362388126603</v>
+        <v>12.408145516390249</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87211964342330539</v>
+        <v>-4.0284020176191149E-2</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
-        <v>9.3397453156777885</v>
+        <v>10.227667344661416</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.9397085763204487</v>
+        <v>12.639987591396039</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.363796615583432</v>
+        <v>-2.6221669693045655</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.4685036836952827</v>
+        <v>3.1514917163150002</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2412899786377123</v>
+        <v>-1.0556733440053456</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5045035106000864</v>
+        <v>10.151883814821517</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10210590404172226</v>
+        <v>-1.8837983862493832</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>8.085323587487105</v>
+        <v>12.038338752757589</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7862822370742215</v>
+        <v>10.492910530415148</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.4757241026870656</v>
+        <v>1.1255940014932087</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9158826469833627</v>
+        <v>9.8952431875020821</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.863260656148491</v>
+        <v>-6.6787738458302979</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5410762293149105</v>
+        <v>-4.8155126409567259</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8261880876456864</v>
+        <v>-0.27039108252212429</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>12.237729836324657</v>
+        <v>6.7230062703570272</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.2654491646105246</v>
+        <v>9.7175818091900936</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7771268603265966</v>
+        <v>10.476714460867491</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0243488020062061</v>
+        <v>3.2667214510083387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1521053960596994</v>
+        <v>11.633112273880748</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>9.4101203965320543</v>
+        <v>-5.986401780843984</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7119751199009094</v>
+        <v>12.848900056027045</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9947959879419273</v>
+        <v>-8.1363875722047396E-2</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6303315652384427</v>
+        <v>-4.1042533134901671</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>12.856426250591159</v>
+        <v>5.3760576330022509</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2967064405400528</v>
+        <v>8.7435984878817408</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6372818757233443</v>
+        <v>4.7737072262332383</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6012676531720871</v>
+        <v>0.77495480764331059</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9849722499335059E-2</v>
+        <v>5.2959055232676473</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>10.057513340717861</v>
+        <v>-3.2625884979764779</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.5308727895450378</v>
+        <v>-1.1603175145512576</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0400803120131794</v>
+        <v>-1.029291695520671</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>12.368669947033382</v>
+        <v>0.68927977532664286</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6618199814497405</v>
+        <v>8.5584957511206703</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4589526319017878</v>
+        <v>8.1072718919655955</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1063121192351009</v>
+        <v>9.6312343424156488</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>12.924515153207174</v>
+        <v>4.5077127475487799</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7825110697780264</v>
+        <v>1.1323228841854416</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7998908528743893</v>
+        <v>3.5009354460533721</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.5339345649786384</v>
+        <v>2.9047064960857369</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0219930853571135</v>
+        <v>6.1877109894883873</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.54482216043173</v>
+        <v>-5.3412779425813248</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.0622861462255555</v>
+        <v>9.3244394891774363</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.9558833486977321</v>
+        <v>1.2942476926775299</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="0"/>
-        <v>11.046820067182139</v>
+        <v>5.9161242084686023</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1913171153377711</v>
+        <v>-6.8076845809118884</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30202546913036166</v>
+        <v>-6.7001900339617375</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2604223034853419</v>
+        <v>-1.2456217368344245</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4503302872233732</v>
+        <v>3.8149247544159088</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="0"/>
-        <v>10.342346532023871</v>
+        <v>11.313137043107631</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1032019025788955</v>
+        <v>4.2406296414622968</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2585898508216502</v>
+        <v>-4.6909416113007794</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.0362952785159649</v>
+        <v>-5.4003357351799002</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>7.9733291762490772</v>
+        <v>-3.5895020900271484</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-5.8838679292812373</v>
+        <v>-4.8050635273865261</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0446212929164886</v>
+        <v>2.1424259945516173</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.7826791436424925</v>
+        <v>9.5538101987700763</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.012622960835321</v>
+        <v>-3.9032395463672591</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2414579673711863</v>
+        <v>8.5132878460978105</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7226694538582663</v>
+        <v>-1.8598304545430331</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5197738031097856</v>
+        <v>3.9610893256522353</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0338524054046996</v>
+        <v>1.80291297142373</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2497849676940103</v>
+        <v>5.6041241456389557E-2</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.3018491323589956</v>
+        <v>10.470086539845898</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1709298490462698</v>
+        <v>-6.7595395510358252</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9281691530269356</v>
+        <v>1.7537999627829848</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1376002378027046</v>
+        <v>0.26320918972283902</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67141809064297497</v>
+        <v>-5.772211000764174</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0370621227485817</v>
+        <v>9.7454154927340539</v>
       </c>
       <c r="Q16">
         <f t="shared" ref="K16:Q20" ca="1" si="2">RAND()*20-7</f>
-        <v>-4.2365358108886539</v>
+        <v>-2.5018996076618176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2225936741834271</v>
+        <v>8.3049519976624708</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9897947737938377</v>
+        <v>-2.9931517191065904</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5644069859258716</v>
+        <v>6.9234481706247077</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="1"/>
-        <v>12.826481563424501</v>
+        <v>2.4127875650963162</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8080208063009655</v>
+        <v>-1.416617696990528</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.14615743311006568</v>
+        <v>-1.7324505485256001</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40261374528853189</v>
+        <v>8.8402429274365382</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.306678967879467</v>
+        <v>7.5069876037635641</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.476044253815493</v>
+        <v>5.839241331255522</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.2666780506510094</v>
+        <v>-1.5550237285403643</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.47405686045763673</v>
+        <v>12.188040780218746</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="1"/>
-        <v>6.9756049383522694</v>
+        <v>-4.7676644756626629</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>12.004870728868909</v>
+        <v>2.3172334378017965</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="1"/>
-        <v>8.205064641480222</v>
+        <v>-5.5835084359224156</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2897210682838822</v>
+        <v>-1.465308132607289</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="1"/>
-        <v>11.485058360285819</v>
+        <v>-5.5921072468417803</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="2"/>
-        <v>-1.9868463704149679</v>
+        <v>0.78845438894399944</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>-6.9640597650852953E-3</v>
+        <v>4.1559180602483572</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2442040731479125</v>
+        <v>6.5717426024331651</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5928936443634054</v>
+        <v>3.4221089534099232</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.38026296250379499</v>
+        <v>5.3950322622636158</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="1"/>
-        <v>9.512410226619501</v>
+        <v>0.37800458190314856</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7271734619269967</v>
+        <v>3.3203951167203876</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="1"/>
-        <v>-5.2376353771352413</v>
+        <v>9.2808164369538595</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7067771563396139</v>
+        <v>9.278037832191405</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="1"/>
-        <v>11.670147778433922</v>
+        <v>-4.0866806187876863</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3594823927023478</v>
+        <v>8.5058034523172328</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8716712081036349</v>
+        <v>-1.0972015155420838</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8955367291913863</v>
+        <v>1.5819332879876065</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="2"/>
-        <v>-2.2860278844725723</v>
+        <v>-0.18245394687716576</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3444340108444379</v>
+        <v>5.8702755799865098</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="2"/>
-        <v>-5.6155510544046976</v>
+        <v>9.2558507671148291</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9845008260309989</v>
+        <v>12.460410330394055</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="2"/>
-        <v>12.407593775721676</v>
+        <v>5.9053143402485091</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3999903967797991</v>
+        <v>9.3289972252802755</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>5.5579690925294294</v>
+        <v>5.875662655379422</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.4685477448362914</v>
+        <v>-1.5713165129830902</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.2176354269596956</v>
+        <v>4.7415599082934534</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0194150960349257</v>
+        <v>-4.3750850731511726</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.9940333637051637</v>
+        <v>5.9850935487580195</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7932312975512978</v>
+        <v>5.7358580409746285</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0831253265664795</v>
+        <v>-0.65657386490488889</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.56710002349993793</v>
+        <v>5.7316948450896952</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>10.69020047258676</v>
+        <v>-0.98494288949435838</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8834765086572407</v>
+        <v>2.6295888822276972</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4168187964723824</v>
+        <v>-5.1744133351439308</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8223050433062635</v>
+        <v>-5.5283416677911088</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="2"/>
-        <v>12.398512646323404</v>
+        <v>6.4362209474140855</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="2"/>
-        <v>-6.5801772426065446</v>
+        <v>11.408533435206074</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="2"/>
-        <v>12.090300104050794</v>
+        <v>9.1349440205529469</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="2"/>
-        <v>2.242132733076998</v>
+        <v>-6.4096739906591225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>12.857854583206272</v>
+        <v>-1.169914278531996</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>11.874357878658412</v>
+        <v>-6.3597433545697424</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1712423321716443</v>
+        <v>-6.7927038947013045</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71316589692771437</v>
+        <v>-4.4650631352540575</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="1"/>
-        <v>7.8053855725468804</v>
+        <v>-6.7682765584411975</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>10.05449158600516</v>
+        <v>-1.6314801526133875</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="1"/>
-        <v>12.932383354926284</v>
+        <v>-0.83817438821100865</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9904262659116148</v>
+        <v>9.7637197241553721</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.0893436972027555</v>
+        <v>2.9658149567976722</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2022745178135104</v>
+        <v>10.447051587801315</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5126877129858123</v>
+        <v>8.6457542618293015</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8620015420369942</v>
+        <v>4.3784296641836651</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.96451443175965323</v>
+        <v>6.8556018783670254</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="2"/>
-        <v>-4.8765702956317636</v>
+        <v>12.087529787280978</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="2"/>
-        <v>-0.489533837076495</v>
+        <v>-1.9223837582279195</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53906238587754185</v>
+        <v>3.7346323759532929</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11881547941676018</v>
+        <v>-5.30958510941411</v>
       </c>
     </row>
   </sheetData>
